--- a/Code/Results/Cases/Case_2_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_133/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.034700326038717</v>
+        <v>0.435511965976275</v>
       </c>
       <c r="C2">
-        <v>0.1472639233135169</v>
+        <v>0.04311331021581566</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7248259236801147</v>
+        <v>0.4987668589820373</v>
       </c>
       <c r="F2">
-        <v>2.293181584454771</v>
+        <v>2.660169050887376</v>
       </c>
       <c r="G2">
-        <v>0.7131902289443843</v>
+        <v>0.9796289912398208</v>
       </c>
       <c r="H2">
-        <v>0.5198583436940822</v>
+        <v>1.004526499947474</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04866012929548447</v>
+        <v>0.07823170415101899</v>
       </c>
       <c r="K2">
-        <v>1.086741276794385</v>
+        <v>0.4016520619536834</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8963648828347743</v>
+        <v>0.3968284938217153</v>
       </c>
       <c r="C3">
-        <v>0.1295017756883823</v>
+        <v>0.03769916303504317</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6303656304650929</v>
+        <v>0.4765312875846206</v>
       </c>
       <c r="F3">
-        <v>2.082148843988733</v>
+        <v>2.625888965376717</v>
       </c>
       <c r="G3">
-        <v>0.6905751558875721</v>
+        <v>0.9817520460068039</v>
       </c>
       <c r="H3">
-        <v>0.5187040285943993</v>
+        <v>1.010959240581656</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04779430646327754</v>
+        <v>0.07861575489026862</v>
       </c>
       <c r="K3">
-        <v>0.9415665693552739</v>
+        <v>0.3601842550331469</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8120462428130111</v>
+        <v>0.3732193453386117</v>
       </c>
       <c r="C4">
-        <v>0.1186346769593314</v>
+        <v>0.03436194866455367</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5730835766079423</v>
+        <v>0.4631162117635199</v>
       </c>
       <c r="F4">
-        <v>1.956891734898662</v>
+        <v>2.606455037019487</v>
       </c>
       <c r="G4">
-        <v>0.6787147559133757</v>
+        <v>0.9837600347720752</v>
       </c>
       <c r="H4">
-        <v>0.5191344616058444</v>
+        <v>1.015417111240936</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04739613817954336</v>
+        <v>0.07890149843764505</v>
       </c>
       <c r="K4">
-        <v>0.8529907264905034</v>
+        <v>0.3348104708113624</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7778163178592195</v>
+        <v>0.363634512743829</v>
       </c>
       <c r="C5">
-        <v>0.1142128536734504</v>
+        <v>0.03299877983344857</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5498973095779718</v>
+        <v>0.4577091545523402</v>
       </c>
       <c r="F5">
-        <v>1.906841999424728</v>
+        <v>2.598940462489054</v>
       </c>
       <c r="G5">
-        <v>0.6743578350970409</v>
+        <v>0.9847548364299996</v>
       </c>
       <c r="H5">
-        <v>0.5195815339992009</v>
+        <v>1.017361337397233</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0472653410612125</v>
+        <v>0.07903046092994259</v>
       </c>
       <c r="K5">
-        <v>0.8170104141724721</v>
+        <v>0.3244926836564161</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7721396475000404</v>
+        <v>0.3620451446306561</v>
       </c>
       <c r="C6">
-        <v>0.1134789239724228</v>
+        <v>0.03277223236396765</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5460560497316465</v>
+        <v>0.4568149204895633</v>
       </c>
       <c r="F6">
-        <v>1.898588711914556</v>
+        <v>2.597717099873975</v>
       </c>
       <c r="G6">
-        <v>0.6736622138788846</v>
+        <v>0.9849306668009064</v>
       </c>
       <c r="H6">
-        <v>0.5196717638358592</v>
+        <v>1.017691876932744</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04724546374698235</v>
+        <v>0.07905263013456576</v>
       </c>
       <c r="K6">
-        <v>0.8110421276312536</v>
+        <v>0.3227807721396516</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8115841093928111</v>
+        <v>0.3730899345305829</v>
       </c>
       <c r="C7">
-        <v>0.1185750199795734</v>
+        <v>0.03434357753312156</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.5727702742796765</v>
+        <v>0.4630430486775197</v>
       </c>
       <c r="F7">
-        <v>1.956212841035153</v>
+        <v>2.606352054697624</v>
       </c>
       <c r="G7">
-        <v>0.6786541105398243</v>
+        <v>0.9837727370580041</v>
       </c>
       <c r="H7">
-        <v>0.5191394098527127</v>
+        <v>1.015442815305605</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04739424949330839</v>
+        <v>0.07890318702793309</v>
       </c>
       <c r="K7">
-        <v>0.8525050508993672</v>
+        <v>0.3346712312169018</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9868578086261266</v>
+        <v>0.4221444098546954</v>
       </c>
       <c r="C8">
-        <v>0.1411294568661106</v>
+        <v>0.0412492000925937</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6920923941707002</v>
+        <v>0.4910506601162723</v>
       </c>
       <c r="F8">
-        <v>2.219463736316143</v>
+        <v>2.648013638095847</v>
       </c>
       <c r="G8">
-        <v>0.7049516391239763</v>
+        <v>0.9802144520858747</v>
       </c>
       <c r="H8">
-        <v>0.5192146863537914</v>
+        <v>1.006638941856636</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04833258772802651</v>
+        <v>0.0783537385834947</v>
       </c>
       <c r="K8">
-        <v>1.036551958530623</v>
+        <v>0.3873358844625727</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.336737155034456</v>
+        <v>0.5194680708577266</v>
       </c>
       <c r="C9">
-        <v>0.1858264301644397</v>
+        <v>0.05468858933524245</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.932945635053045</v>
+        <v>0.5478657138679495</v>
       </c>
       <c r="F9">
-        <v>2.774492862382345</v>
+        <v>2.742572348793061</v>
       </c>
       <c r="G9">
-        <v>0.7741998391452967</v>
+        <v>0.9788541898349479</v>
       </c>
       <c r="H9">
-        <v>0.5291219884654765</v>
+        <v>0.9934144274795358</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05133413146306509</v>
+        <v>0.07767419697007227</v>
       </c>
       <c r="K9">
-        <v>1.403227885703302</v>
+        <v>0.4913030581764133</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.599471138975417</v>
+        <v>0.5916621584337349</v>
       </c>
       <c r="C10">
-        <v>0.2191968679645555</v>
+        <v>0.06450089864155473</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.115898905411854</v>
+        <v>0.5907755003950967</v>
       </c>
       <c r="F10">
-        <v>3.212864727401069</v>
+        <v>2.81996916408707</v>
       </c>
       <c r="G10">
-        <v>0.8382942110266498</v>
+        <v>0.9813199474278349</v>
       </c>
       <c r="H10">
-        <v>0.5434439286890438</v>
+        <v>0.9861727572085357</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0544037175131038</v>
+        <v>0.07741997346184704</v>
       </c>
       <c r="K10">
-        <v>1.678136985556364</v>
+        <v>0.5681136478917779</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.720704102857184</v>
+        <v>0.6246562168807372</v>
       </c>
       <c r="C11">
-        <v>0.2345553840169003</v>
+        <v>0.06895166521654517</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.200888625565099</v>
+        <v>0.6105533046137452</v>
       </c>
       <c r="F11">
-        <v>3.420668489590128</v>
+        <v>2.856918768715303</v>
       </c>
       <c r="G11">
-        <v>0.8709273730739255</v>
+        <v>0.9832029390410355</v>
       </c>
       <c r="H11">
-        <v>0.5517599043763113</v>
+        <v>0.9834181769337533</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05602682463468156</v>
+        <v>0.07735806280309987</v>
       </c>
       <c r="K11">
-        <v>1.804894847301654</v>
+        <v>0.6031507609774565</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.766902064266958</v>
+        <v>0.6371720837881014</v>
       </c>
       <c r="C12">
-        <v>0.2404026456122068</v>
+        <v>0.07063520101330312</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.233368403284388</v>
+        <v>0.6180799160185586</v>
       </c>
       <c r="F12">
-        <v>3.500726330092419</v>
+        <v>2.871162365618801</v>
       </c>
       <c r="G12">
-        <v>0.883840959587971</v>
+        <v>0.9840261451501675</v>
       </c>
       <c r="H12">
-        <v>0.5551932275718912</v>
+        <v>0.982452901869209</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0566777128723075</v>
+        <v>0.07734238878969535</v>
       </c>
       <c r="K12">
-        <v>1.853185121035807</v>
+        <v>0.616432100014606</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.756938888494574</v>
+        <v>0.6344756046302109</v>
       </c>
       <c r="C13">
-        <v>0.2391418422743783</v>
+        <v>0.0702727050235552</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.226359408717116</v>
+        <v>0.6164572701184738</v>
       </c>
       <c r="F13">
-        <v>3.483420887107457</v>
+        <v>2.868083544143246</v>
       </c>
       <c r="G13">
-        <v>0.8810340966421961</v>
+        <v>0.9838439427852705</v>
       </c>
       <c r="H13">
-        <v>0.5544407274537519</v>
+        <v>0.9826573263698748</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05653585778587455</v>
+        <v>0.07734541820147811</v>
       </c>
       <c r="K13">
-        <v>1.842771284659278</v>
+        <v>0.6135711267405384</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.724498768434898</v>
+        <v>0.6256854704102466</v>
       </c>
       <c r="C14">
-        <v>0.235035778979011</v>
+        <v>0.06909020835232127</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.203554563447298</v>
+        <v>0.6111717776230705</v>
       </c>
       <c r="F14">
-        <v>3.427226512878292</v>
+        <v>2.858085549143823</v>
       </c>
       <c r="G14">
-        <v>0.8719782934760616</v>
+        <v>0.9832684530549471</v>
       </c>
       <c r="H14">
-        <v>0.5520365151203492</v>
+        <v>0.9833372021997491</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05607962474701367</v>
+        <v>0.07735661731934584</v>
       </c>
       <c r="K14">
-        <v>1.808861632422037</v>
+        <v>0.6042431544039175</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.704667338474707</v>
+        <v>0.6203040835028162</v>
       </c>
       <c r="C15">
-        <v>0.2325249563271257</v>
+        <v>0.06836565058769395</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.189625829126996</v>
+        <v>0.6079391065596269</v>
       </c>
       <c r="F15">
-        <v>3.392988948175116</v>
+        <v>2.85199428709592</v>
       </c>
       <c r="G15">
-        <v>0.8665055425975083</v>
+        <v>0.9829303151011715</v>
       </c>
       <c r="H15">
-        <v>0.5506016774517235</v>
+        <v>0.9837637873306448</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05580500495694807</v>
+        <v>0.07736449028954695</v>
       </c>
       <c r="K15">
-        <v>1.788130159368563</v>
+        <v>0.5985312600826092</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.591586364321529</v>
+        <v>0.5895089717186579</v>
       </c>
       <c r="C16">
-        <v>0.2181972112431794</v>
+        <v>0.06420976942382595</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.110383631477788</v>
+        <v>0.5894881726519827</v>
       </c>
       <c r="F16">
-        <v>3.199466400313923</v>
+        <v>2.817589561934653</v>
       </c>
       <c r="G16">
-        <v>0.8362361868899626</v>
+        <v>0.98121226729738</v>
       </c>
       <c r="H16">
-        <v>0.5429388009342659</v>
+        <v>0.9863636540664515</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05430250932585778</v>
+        <v>0.07742510445647355</v>
       </c>
       <c r="K16">
-        <v>1.669891045570012</v>
+        <v>0.5658257963272604</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.52268323957955</v>
+        <v>0.5706561016710623</v>
       </c>
       <c r="C17">
-        <v>0.2094570974337131</v>
+        <v>0.06165695349099565</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.062251482750654</v>
+        <v>0.5782352505167268</v>
       </c>
       <c r="F17">
-        <v>3.083003839212154</v>
+        <v>2.796930223002278</v>
       </c>
       <c r="G17">
-        <v>0.8185955306127397</v>
+        <v>0.98035377515059</v>
       </c>
       <c r="H17">
-        <v>0.5387163107348982</v>
+        <v>0.988096970631986</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05344132663948287</v>
+        <v>0.07747608306609521</v>
       </c>
       <c r="K17">
-        <v>1.597821491633823</v>
+        <v>0.5457863913582912</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.483210480158903</v>
+        <v>0.5598268057022437</v>
       </c>
       <c r="C18">
-        <v>0.2044464052148101</v>
+        <v>0.06018742785522591</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.034730312841958</v>
+        <v>0.5717871385246127</v>
       </c>
       <c r="F18">
-        <v>3.016796394460755</v>
+        <v>2.785211356165462</v>
       </c>
       <c r="G18">
-        <v>0.8087726129743373</v>
+        <v>0.979931609990885</v>
       </c>
       <c r="H18">
-        <v>0.5364554930385168</v>
+        <v>0.9891447137187299</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05296709873578465</v>
+        <v>0.07751046000928952</v>
       </c>
       <c r="K18">
-        <v>1.556526060593228</v>
+        <v>0.5342692646569844</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.469871656713678</v>
+        <v>0.5561626678403115</v>
       </c>
       <c r="C19">
-        <v>0.2027525220229478</v>
+        <v>0.05968966387159469</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.025438924875019</v>
+        <v>0.5696080843491984</v>
       </c>
       <c r="F19">
-        <v>2.994508806324347</v>
+        <v>2.781271653140237</v>
       </c>
       <c r="G19">
-        <v>0.8055006850904789</v>
+        <v>0.9798009515873929</v>
       </c>
       <c r="H19">
-        <v>0.5357181177890453</v>
+        <v>0.9895081773348267</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0528100525466364</v>
+        <v>0.07752296641522349</v>
       </c>
       <c r="K19">
-        <v>1.542569807437673</v>
+        <v>0.5303713169967068</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.530001391865028</v>
+        <v>0.5726615355369233</v>
       </c>
       <c r="C20">
-        <v>0.2103857617847069</v>
+        <v>0.06192883082238154</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.06735805236228</v>
+        <v>0.5794306306323307</v>
       </c>
       <c r="F20">
-        <v>3.09531976820233</v>
+        <v>2.799112479769491</v>
       </c>
       <c r="G20">
-        <v>0.8204395361177035</v>
+        <v>0.9804377460820746</v>
       </c>
       <c r="H20">
-        <v>0.5391482555049123</v>
+        <v>0.9879071984634606</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05353079186355458</v>
+        <v>0.07747013278123305</v>
       </c>
       <c r="K20">
-        <v>1.605476848860945</v>
+        <v>0.5479186893086307</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.734018990389643</v>
+        <v>0.6282667577331154</v>
       </c>
       <c r="C21">
-        <v>0.2362409304884352</v>
+        <v>0.06943758725326177</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.210244503179993</v>
+        <v>0.6127232448702671</v>
       </c>
       <c r="F21">
-        <v>3.443693689755833</v>
+        <v>2.861015365328342</v>
       </c>
       <c r="G21">
-        <v>0.8746226326174593</v>
+        <v>0.9834344932307602</v>
       </c>
       <c r="H21">
-        <v>0.5527347617567102</v>
+        <v>0.9831353923066501</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05621261653508114</v>
+        <v>0.07735311664286115</v>
       </c>
       <c r="K21">
-        <v>1.818813469098785</v>
+        <v>0.6069826399601652</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.869068004773538</v>
+        <v>0.6647345679048726</v>
       </c>
       <c r="C22">
-        <v>0.2533244865530833</v>
+        <v>0.0743340695640029</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.305377774168846</v>
+        <v>0.6346986914017805</v>
       </c>
       <c r="F22">
-        <v>3.679432321210754</v>
+        <v>2.90293945319317</v>
       </c>
       <c r="G22">
-        <v>0.9133062997734243</v>
+        <v>0.9860354439892092</v>
       </c>
       <c r="H22">
-        <v>0.5632848015669651</v>
+        <v>0.9804704649793621</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05817863828889713</v>
+        <v>0.07732195060952662</v>
       </c>
       <c r="K22">
-        <v>1.959955103339865</v>
+        <v>0.6456632067618955</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.796817735500952</v>
+        <v>0.6452594972064105</v>
       </c>
       <c r="C23">
-        <v>0.2441876222527526</v>
+        <v>0.07172172986224723</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.254428027766608</v>
+        <v>0.6229501114832914</v>
       </c>
       <c r="F23">
-        <v>3.552819112923402</v>
+        <v>2.880429160105479</v>
       </c>
       <c r="G23">
-        <v>0.8923405927623662</v>
+        <v>0.9845882616789368</v>
       </c>
       <c r="H23">
-        <v>0.5574921443461989</v>
+        <v>0.9818511988484033</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05710850869559891</v>
+        <v>0.07733442434191673</v>
       </c>
       <c r="K23">
-        <v>1.884452116999569</v>
+        <v>0.6250115091367547</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.526692420600256</v>
+        <v>0.5717548493734057</v>
       </c>
       <c r="C24">
-        <v>0.2099658690883643</v>
+        <v>0.0618059209307944</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.06504890616695</v>
+        <v>0.5788901328129725</v>
       </c>
       <c r="F24">
-        <v>3.089749417466749</v>
+        <v>2.79812538795602</v>
       </c>
       <c r="G24">
-        <v>0.8196048720101317</v>
+        <v>0.9803995604800235</v>
       </c>
       <c r="H24">
-        <v>0.5389524557703282</v>
+        <v>0.9879928348682796</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05349027987796973</v>
+        <v>0.07747280712029081</v>
       </c>
       <c r="K24">
-        <v>1.602015434403711</v>
+        <v>0.5469546655748161</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.241237554857065</v>
+        <v>0.4930184234258377</v>
       </c>
       <c r="C25">
-        <v>0.1736606632939441</v>
+        <v>0.05106376627652764</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8668772199754926</v>
+        <v>0.5322917124527038</v>
       </c>
       <c r="F25">
-        <v>2.619512280895634</v>
+        <v>2.715606221676808</v>
       </c>
       <c r="G25">
-        <v>0.7533349752443996</v>
+        <v>0.9786165938650697</v>
       </c>
       <c r="H25">
-        <v>0.5252900352757592</v>
+        <v>0.9965583223636827</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05038253879555654</v>
+        <v>0.07781517772532354</v>
       </c>
       <c r="K25">
-        <v>1.303220085092647</v>
+        <v>0.4631027105915848</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_133/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.435511965976275</v>
+        <v>1.034700326038688</v>
       </c>
       <c r="C2">
-        <v>0.04311331021581566</v>
+        <v>0.1472639233136164</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4987668589820373</v>
+        <v>0.7248259236800436</v>
       </c>
       <c r="F2">
-        <v>2.660169050887376</v>
+        <v>2.293181584454729</v>
       </c>
       <c r="G2">
-        <v>0.9796289912398208</v>
+        <v>0.7131902289443275</v>
       </c>
       <c r="H2">
-        <v>1.004526499947474</v>
+        <v>0.5198583436940822</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07823170415101899</v>
+        <v>0.04866012929547381</v>
       </c>
       <c r="K2">
-        <v>0.4016520619536834</v>
+        <v>1.086741276794328</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3968284938217153</v>
+        <v>0.8963648828348312</v>
       </c>
       <c r="C3">
-        <v>0.03769916303504317</v>
+        <v>0.1295017756883254</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4765312875846206</v>
+        <v>0.6303656304651071</v>
       </c>
       <c r="F3">
-        <v>2.625888965376717</v>
+        <v>2.082148843988719</v>
       </c>
       <c r="G3">
-        <v>0.9817520460068039</v>
+        <v>0.6905751558875863</v>
       </c>
       <c r="H3">
-        <v>1.010959240581656</v>
+        <v>0.5187040285943993</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07861575489026862</v>
+        <v>0.04779430646317806</v>
       </c>
       <c r="K3">
-        <v>0.3601842550331469</v>
+        <v>0.9415665693553308</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3732193453386117</v>
+        <v>0.8120462428131248</v>
       </c>
       <c r="C4">
-        <v>0.03436194866455367</v>
+        <v>0.1186346769595445</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4631162117635199</v>
+        <v>0.5730835766079565</v>
       </c>
       <c r="F4">
-        <v>2.606455037019487</v>
+        <v>1.956891734898676</v>
       </c>
       <c r="G4">
-        <v>0.9837600347720752</v>
+        <v>0.6787147559133615</v>
       </c>
       <c r="H4">
-        <v>1.015417111240936</v>
+        <v>0.5191344616057449</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07890149843764505</v>
+        <v>0.04739613817954691</v>
       </c>
       <c r="K4">
-        <v>0.3348104708113624</v>
+        <v>0.8529907264903898</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.363634512743829</v>
+        <v>0.7778163178591626</v>
       </c>
       <c r="C5">
-        <v>0.03299877983344857</v>
+        <v>0.1142128536733082</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4577091545523402</v>
+        <v>0.5498973095779718</v>
       </c>
       <c r="F5">
-        <v>2.598940462489054</v>
+        <v>1.906841999424742</v>
       </c>
       <c r="G5">
-        <v>0.9847548364299996</v>
+        <v>0.6743578350969983</v>
       </c>
       <c r="H5">
-        <v>1.017361337397233</v>
+        <v>0.5195815339991015</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07903046092994259</v>
+        <v>0.04726534106109526</v>
       </c>
       <c r="K5">
-        <v>0.3244926836564161</v>
+        <v>0.8170104141723868</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3620451446306561</v>
+        <v>0.7721396475000404</v>
       </c>
       <c r="C6">
-        <v>0.03277223236396765</v>
+        <v>0.113478923972437</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4568149204895633</v>
+        <v>0.5460560497316749</v>
       </c>
       <c r="F6">
-        <v>2.597717099873975</v>
+        <v>1.898588711914542</v>
       </c>
       <c r="G6">
-        <v>0.9849306668009064</v>
+        <v>0.6736622138788988</v>
       </c>
       <c r="H6">
-        <v>1.017691876932744</v>
+        <v>0.5196717638359587</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07905263013456576</v>
+        <v>0.0472454637470392</v>
       </c>
       <c r="K6">
-        <v>0.3227807721396516</v>
+        <v>0.8110421276312252</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3730899345305829</v>
+        <v>0.8115841093929532</v>
       </c>
       <c r="C7">
-        <v>0.03434357753312156</v>
+        <v>0.1185750199792324</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4630430486775197</v>
+        <v>0.5727702742796481</v>
       </c>
       <c r="F7">
-        <v>2.606352054697624</v>
+        <v>1.956212841035153</v>
       </c>
       <c r="G7">
-        <v>0.9837727370580041</v>
+        <v>0.6786541105397959</v>
       </c>
       <c r="H7">
-        <v>1.015442815305605</v>
+        <v>0.5191394098528406</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07890318702793309</v>
+        <v>0.04739424949330129</v>
       </c>
       <c r="K7">
-        <v>0.3346712312169018</v>
+        <v>0.8525050508993388</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4221444098546954</v>
+        <v>0.9868578086262119</v>
       </c>
       <c r="C8">
-        <v>0.0412492000925937</v>
+        <v>0.1411294568658832</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4910506601162723</v>
+        <v>0.6920923941707144</v>
       </c>
       <c r="F8">
-        <v>2.648013638095847</v>
+        <v>2.219463736316129</v>
       </c>
       <c r="G8">
-        <v>0.9802144520858747</v>
+        <v>0.7049516391239763</v>
       </c>
       <c r="H8">
-        <v>1.006638941856636</v>
+        <v>0.5192146863537914</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0783537385834947</v>
+        <v>0.04833258772807625</v>
       </c>
       <c r="K8">
-        <v>0.3873358844625727</v>
+        <v>1.036551958530538</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5194680708577266</v>
+        <v>1.336737155034683</v>
       </c>
       <c r="C9">
-        <v>0.05468858933524245</v>
+        <v>0.1858264301650081</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5478657138679495</v>
+        <v>0.932945635053045</v>
       </c>
       <c r="F9">
-        <v>2.742572348793061</v>
+        <v>2.774492862382317</v>
       </c>
       <c r="G9">
-        <v>0.9788541898349479</v>
+        <v>0.7741998391453251</v>
       </c>
       <c r="H9">
-        <v>0.9934144274795358</v>
+        <v>0.5291219884655618</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07767419697007227</v>
+        <v>0.05133413146316457</v>
       </c>
       <c r="K9">
-        <v>0.4913030581764133</v>
+        <v>1.40322788570333</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5916621584337349</v>
+        <v>1.599471138975332</v>
       </c>
       <c r="C10">
-        <v>0.06450089864155473</v>
+        <v>0.219196867964456</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5907755003950967</v>
+        <v>1.115898905411854</v>
       </c>
       <c r="F10">
-        <v>2.81996916408707</v>
+        <v>3.212864727401069</v>
       </c>
       <c r="G10">
-        <v>0.9813199474278349</v>
+        <v>0.8382942110266782</v>
       </c>
       <c r="H10">
-        <v>0.9861727572085357</v>
+        <v>0.5434439286890296</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07741997346184704</v>
+        <v>0.05440371751310025</v>
       </c>
       <c r="K10">
-        <v>0.5681136478917779</v>
+        <v>1.678136985556222</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6246562168807372</v>
+        <v>1.720704102857354</v>
       </c>
       <c r="C11">
-        <v>0.06895166521654517</v>
+        <v>0.2345553840168577</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6105533046137452</v>
+        <v>1.200888625565071</v>
       </c>
       <c r="F11">
-        <v>2.856918768715303</v>
+        <v>3.420668489590099</v>
       </c>
       <c r="G11">
-        <v>0.9832029390410355</v>
+        <v>0.8709273730739682</v>
       </c>
       <c r="H11">
-        <v>0.9834181769337533</v>
+        <v>0.551759904376425</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07735806280309987</v>
+        <v>0.0560268246347313</v>
       </c>
       <c r="K11">
-        <v>0.6031507609774565</v>
+        <v>1.804894847301597</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6371720837881014</v>
+        <v>1.766902064267015</v>
       </c>
       <c r="C12">
-        <v>0.07063520101330312</v>
+        <v>0.2404026456121926</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6180799160185586</v>
+        <v>1.233368403284359</v>
       </c>
       <c r="F12">
-        <v>2.871162365618801</v>
+        <v>3.500726330092419</v>
       </c>
       <c r="G12">
-        <v>0.9840261451501675</v>
+        <v>0.8838409595879995</v>
       </c>
       <c r="H12">
-        <v>0.982452901869209</v>
+        <v>0.5551932275717775</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07734238878969535</v>
+        <v>0.05667771287228973</v>
       </c>
       <c r="K12">
-        <v>0.616432100014606</v>
+        <v>1.853185121035807</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6344756046302109</v>
+        <v>1.756938888494489</v>
       </c>
       <c r="C13">
-        <v>0.0702727050235552</v>
+        <v>0.2391418422741509</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6164572701184738</v>
+        <v>1.226359408717087</v>
       </c>
       <c r="F13">
-        <v>2.868083544143246</v>
+        <v>3.483420887107457</v>
       </c>
       <c r="G13">
-        <v>0.9838439427852705</v>
+        <v>0.8810340966421393</v>
       </c>
       <c r="H13">
-        <v>0.9826573263698748</v>
+        <v>0.5544407274538656</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07734541820147811</v>
+        <v>0.0565358577858035</v>
       </c>
       <c r="K13">
-        <v>0.6135711267405384</v>
+        <v>1.842771284659278</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6256854704102466</v>
+        <v>1.724498768434671</v>
       </c>
       <c r="C14">
-        <v>0.06909020835232127</v>
+        <v>0.2350357789791389</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6111717776230705</v>
+        <v>1.203554563447312</v>
       </c>
       <c r="F14">
-        <v>2.858085549143823</v>
+        <v>3.427226512878264</v>
       </c>
       <c r="G14">
-        <v>0.9832684530549471</v>
+        <v>0.8719782934760332</v>
       </c>
       <c r="H14">
-        <v>0.9833372021997491</v>
+        <v>0.552036515120335</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07735661731934584</v>
+        <v>0.05607962474699946</v>
       </c>
       <c r="K14">
-        <v>0.6042431544039175</v>
+        <v>1.808861632422065</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6203040835028162</v>
+        <v>1.704667338474934</v>
       </c>
       <c r="C15">
-        <v>0.06836565058769395</v>
+        <v>0.2325249563273388</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6079391065596269</v>
+        <v>1.189625829126996</v>
       </c>
       <c r="F15">
-        <v>2.85199428709592</v>
+        <v>3.392988948175116</v>
       </c>
       <c r="G15">
-        <v>0.9829303151011715</v>
+        <v>0.8665055425974231</v>
       </c>
       <c r="H15">
-        <v>0.9837637873306448</v>
+        <v>0.5506016774517235</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07736449028954695</v>
+        <v>0.05580500495688767</v>
       </c>
       <c r="K15">
-        <v>0.5985312600826092</v>
+        <v>1.788130159368507</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5895089717186579</v>
+        <v>1.5915863643215</v>
       </c>
       <c r="C16">
-        <v>0.06420976942382595</v>
+        <v>0.2181972112433073</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5894881726519827</v>
+        <v>1.110383631477745</v>
       </c>
       <c r="F16">
-        <v>2.817589561934653</v>
+        <v>3.199466400313952</v>
       </c>
       <c r="G16">
-        <v>0.98121226729738</v>
+        <v>0.8362361868898915</v>
       </c>
       <c r="H16">
-        <v>0.9863636540664515</v>
+        <v>0.5429388009343938</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07742510445647355</v>
+        <v>0.05430250932584357</v>
       </c>
       <c r="K16">
-        <v>0.5658257963272604</v>
+        <v>1.669891045569983</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5706561016710623</v>
+        <v>1.522683239579635</v>
       </c>
       <c r="C17">
-        <v>0.06165695349099565</v>
+        <v>0.2094570974337131</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5782352505167268</v>
+        <v>1.062251482750668</v>
       </c>
       <c r="F17">
-        <v>2.796930223002278</v>
+        <v>3.083003839212125</v>
       </c>
       <c r="G17">
-        <v>0.98035377515059</v>
+        <v>0.8185955306126544</v>
       </c>
       <c r="H17">
-        <v>0.988096970631986</v>
+        <v>0.5387163107350119</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07747608306609521</v>
+        <v>0.05344132663948997</v>
       </c>
       <c r="K17">
-        <v>0.5457863913582912</v>
+        <v>1.597821491633795</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5598268057022437</v>
+        <v>1.483210480158931</v>
       </c>
       <c r="C18">
-        <v>0.06018742785522591</v>
+        <v>0.2044464052150516</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5717871385246127</v>
+        <v>1.034730312841972</v>
       </c>
       <c r="F18">
-        <v>2.785211356165462</v>
+        <v>3.016796394460755</v>
       </c>
       <c r="G18">
-        <v>0.979931609990885</v>
+        <v>0.8087726129742521</v>
       </c>
       <c r="H18">
-        <v>0.9891447137187299</v>
+        <v>0.5364554930383889</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07751046000928952</v>
+        <v>0.05296709873576333</v>
       </c>
       <c r="K18">
-        <v>0.5342692646569844</v>
+        <v>1.556526060593285</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5561626678403115</v>
+        <v>1.469871656713622</v>
       </c>
       <c r="C19">
-        <v>0.05968966387159469</v>
+        <v>0.2027525220227204</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5696080843491984</v>
+        <v>1.025438924875019</v>
       </c>
       <c r="F19">
-        <v>2.781271653140237</v>
+        <v>2.994508806324347</v>
       </c>
       <c r="G19">
-        <v>0.9798009515873929</v>
+        <v>0.8055006850903936</v>
       </c>
       <c r="H19">
-        <v>0.9895081773348267</v>
+        <v>0.5357181177890453</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07752296641522349</v>
+        <v>0.05281005254652271</v>
       </c>
       <c r="K19">
-        <v>0.5303713169967068</v>
+        <v>1.542569807437701</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5726615355369233</v>
+        <v>1.530001391865</v>
       </c>
       <c r="C20">
-        <v>0.06192883082238154</v>
+        <v>0.2103857617851759</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5794306306323307</v>
+        <v>1.067358052362252</v>
       </c>
       <c r="F20">
-        <v>2.799112479769491</v>
+        <v>3.095319768202359</v>
       </c>
       <c r="G20">
-        <v>0.9804377460820746</v>
+        <v>0.8204395361177177</v>
       </c>
       <c r="H20">
-        <v>0.9879071984634606</v>
+        <v>0.539148255505026</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07747013278123305</v>
+        <v>0.05353079186338405</v>
       </c>
       <c r="K20">
-        <v>0.5479186893086307</v>
+        <v>1.605476848860974</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6282667577331154</v>
+        <v>1.734018990389529</v>
       </c>
       <c r="C21">
-        <v>0.06943758725326177</v>
+        <v>0.2362409304884494</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6127232448702671</v>
+        <v>1.210244503179993</v>
       </c>
       <c r="F21">
-        <v>2.861015365328342</v>
+        <v>3.443693689755833</v>
       </c>
       <c r="G21">
-        <v>0.9834344932307602</v>
+        <v>0.8746226326174309</v>
       </c>
       <c r="H21">
-        <v>0.9831353923066501</v>
+        <v>0.5527347617567102</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07735311664286115</v>
+        <v>0.05621261653508469</v>
       </c>
       <c r="K21">
-        <v>0.6069826399601652</v>
+        <v>1.818813469098785</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6647345679048726</v>
+        <v>1.869068004773595</v>
       </c>
       <c r="C22">
-        <v>0.0743340695640029</v>
+        <v>0.2533244865532112</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6346986914017805</v>
+        <v>1.305377774168804</v>
       </c>
       <c r="F22">
-        <v>2.90293945319317</v>
+        <v>3.679432321210754</v>
       </c>
       <c r="G22">
-        <v>0.9860354439892092</v>
+        <v>0.9133062997733958</v>
       </c>
       <c r="H22">
-        <v>0.9804704649793621</v>
+        <v>0.5632848015669651</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07732195060952662</v>
+        <v>0.05817863828875147</v>
       </c>
       <c r="K22">
-        <v>0.6456632067618955</v>
+        <v>1.959955103339752</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6452594972064105</v>
+        <v>1.79681773550098</v>
       </c>
       <c r="C23">
-        <v>0.07172172986224723</v>
+        <v>0.2441876222528663</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6229501114832914</v>
+        <v>1.254428027766608</v>
       </c>
       <c r="F23">
-        <v>2.880429160105479</v>
+        <v>3.552819112923487</v>
       </c>
       <c r="G23">
-        <v>0.9845882616789368</v>
+        <v>0.8923405927623946</v>
       </c>
       <c r="H23">
-        <v>0.9818511988484033</v>
+        <v>0.5574921443461989</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07733442434191673</v>
+        <v>0.05710850869564865</v>
       </c>
       <c r="K23">
-        <v>0.6250115091367547</v>
+        <v>1.884452116999597</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5717548493734057</v>
+        <v>1.526692420600085</v>
       </c>
       <c r="C24">
-        <v>0.0618059209307944</v>
+        <v>0.209965869088137</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5788901328129725</v>
+        <v>1.065048906166965</v>
       </c>
       <c r="F24">
-        <v>2.79812538795602</v>
+        <v>3.08974941746672</v>
       </c>
       <c r="G24">
-        <v>0.9803995604800235</v>
+        <v>0.8196048720101601</v>
       </c>
       <c r="H24">
-        <v>0.9879928348682796</v>
+        <v>0.5389524557703282</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07747280712029081</v>
+        <v>0.05349027987784893</v>
       </c>
       <c r="K24">
-        <v>0.5469546655748161</v>
+        <v>1.602015434403654</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4930184234258377</v>
+        <v>1.241237554857207</v>
       </c>
       <c r="C25">
-        <v>0.05106376627652764</v>
+        <v>0.1736606632938589</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5322917124527038</v>
+        <v>0.8668772199755068</v>
       </c>
       <c r="F25">
-        <v>2.715606221676808</v>
+        <v>2.619512280895606</v>
       </c>
       <c r="G25">
-        <v>0.9786165938650697</v>
+        <v>0.7533349752444423</v>
       </c>
       <c r="H25">
-        <v>0.9965583223636827</v>
+        <v>0.5252900352757734</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07781517772532354</v>
+        <v>0.05038253879560983</v>
       </c>
       <c r="K25">
-        <v>0.4631027105915848</v>
+        <v>1.303220085092676</v>
       </c>
       <c r="L25">
         <v>0</v>
